--- a/res/Sunbird App Multilingual Strings Sheet.xlsx
+++ b/res/Sunbird App Multilingual Strings Sheet.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="312">
   <si>
     <t>key</t>
   </si>
@@ -964,6 +964,15 @@
   <si>
     <t>USER_NAME_PROFILE</t>
   </si>
+  <si>
+    <t>BATCHES_FOR_THIS_COURSE</t>
+  </si>
+  <si>
+    <t>Batches for this course</t>
+  </si>
+  <si>
+    <t>SHOW BATCHES</t>
+  </si>
 </sst>
 </file>
 
@@ -1194,13 +1203,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1212,23 +1215,32 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1238,9 +1250,6 @@
     </xf>
     <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment wrapText="1"/>
@@ -1773,55 +1782,55 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
     </row>
     <row r="2">
       <c r="A2" s="19" t="s">
@@ -1845,7 +1854,7 @@
       <c r="G2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="13" t="s">
         <v>20</v>
       </c>
       <c r="I2" s="20" t="s">
@@ -7027,8 +7036,12 @@
       <c r="AA158" s="24"/>
     </row>
     <row r="159">
-      <c r="A159" s="72"/>
-      <c r="B159" s="45"/>
+      <c r="A159" s="69" t="s">
+        <v>309</v>
+      </c>
+      <c r="B159" s="27" t="s">
+        <v>310</v>
+      </c>
       <c r="C159" s="27"/>
       <c r="D159" s="28"/>
       <c r="E159" s="28"/>
@@ -7056,8 +7069,12 @@
       <c r="AA159" s="24"/>
     </row>
     <row r="160">
-      <c r="A160" s="72"/>
-      <c r="B160" s="45"/>
+      <c r="A160" s="69" t="s">
+        <v>301</v>
+      </c>
+      <c r="B160" s="27" t="s">
+        <v>311</v>
+      </c>
       <c r="C160" s="27"/>
       <c r="D160" s="28"/>
       <c r="E160" s="28"/>
@@ -32809,7 +32826,7 @@
     </row>
     <row r="1048">
       <c r="A1048" s="24"/>
-      <c r="B1048" s="16"/>
+      <c r="B1048" s="17"/>
       <c r="C1048" s="102"/>
       <c r="D1048" s="24"/>
       <c r="E1048" s="24"/>
@@ -34984,7 +35001,7 @@
     </row>
     <row r="1123">
       <c r="A1123" s="24"/>
-      <c r="B1123" s="16"/>
+      <c r="B1123" s="17"/>
       <c r="C1123" s="102"/>
       <c r="D1123" s="24"/>
       <c r="E1123" s="24"/>
@@ -40085,27 +40102,27 @@
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
-      <c r="F125" s="4"/>
+      <c r="F125" s="3"/>
       <c r="G125" s="2"/>
-      <c r="H125" s="6"/>
-      <c r="I125" s="7"/>
-      <c r="J125" s="7"/>
-      <c r="K125" s="8"/>
-      <c r="L125" s="8"/>
-      <c r="M125" s="8"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="6"/>
+      <c r="L125" s="6"/>
+      <c r="M125" s="6"/>
     </row>
     <row r="139">
-      <c r="C139" s="10"/>
-      <c r="D139" s="12"/>
-      <c r="E139" s="12"/>
-      <c r="F139" s="12"/>
-      <c r="G139" s="14"/>
-      <c r="H139" s="12"/>
-      <c r="I139" s="12"/>
-      <c r="J139" s="18"/>
-      <c r="K139" s="12"/>
-      <c r="L139" s="12"/>
-      <c r="M139" s="12"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="8"/>
+      <c r="J139" s="10"/>
+      <c r="K139" s="8"/>
+      <c r="L139" s="8"/>
+      <c r="M139" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
